--- a/test/fixtures/files/TestGenericTemplateMini.xlsx
+++ b/test/fixtures/files/TestGenericTemplateMini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghamilton/devel/CDC/SDPV/SDP-Vocabulary-Service/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD03380-0B03-7648-AA50-92609E1080A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF977EE9-8CAC-6740-A3BA-D447827FE8D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="840" windowWidth="27160" windowHeight="15500" tabRatio="929" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Questions" sheetId="8" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="799">
   <si>
     <t>Populate a category from the list</t>
   </si>
@@ -2552,6 +2552,21 @@
   </si>
   <si>
     <t>RS Notes (I)</t>
+  </si>
+  <si>
+    <t>Response Set Description (O)</t>
+  </si>
+  <si>
+    <t>Response Set Name (R)</t>
+  </si>
+  <si>
+    <t>Display Name (R)</t>
+  </si>
+  <si>
+    <t>Response (R)</t>
+  </si>
+  <si>
+    <t>Code System Identifier (O)</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2760,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2865,6 +2880,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3186,7 +3202,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
@@ -3375,7 +3391,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3389,20 +3405,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3493,34 +3509,34 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3573,7 +3589,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3669,7 +3685,9 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4706,7 +4724,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4719,20 +4739,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7051,7 +7071,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7064,20 +7086,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8883,7 +8905,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8896,20 +8920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -10498,7 +10522,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10511,20 +10535,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -16915,7 +16939,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16928,20 +16954,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18291,7 +18317,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18305,20 +18331,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/test/fixtures/files/TestGenericTemplateMini.xlsx
+++ b/test/fixtures/files/TestGenericTemplateMini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghamilton/devel/CDC/SDPV/SDP-Vocabulary-Service/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF977EE9-8CAC-6740-A3BA-D447827FE8D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2222D-7E29-464F-81E7-335F6E4FA736}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="840" windowWidth="27160" windowHeight="15500" tabRatio="929" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Questions" sheetId="8" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="794">
   <si>
     <t>Populate a category from the list</t>
   </si>
@@ -2552,21 +2552,6 @@
   </si>
   <si>
     <t>RS Notes (I)</t>
-  </si>
-  <si>
-    <t>Response Set Description (O)</t>
-  </si>
-  <si>
-    <t>Response Set Name (R)</t>
-  </si>
-  <si>
-    <t>Display Name (R)</t>
-  </si>
-  <si>
-    <t>Response (R)</t>
-  </si>
-  <si>
-    <t>Code System Identifier (O)</t>
   </si>
 </sst>
 </file>
@@ -2760,7 +2745,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2880,7 +2865,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3202,10 +3186,10 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3375,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3405,20 +3389,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3509,34 +3493,34 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3589,7 +3573,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3685,9 +3669,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4724,9 +4706,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4739,20 +4719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7071,9 +7051,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7086,20 +7064,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8905,9 +8883,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8920,20 +8896,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -10522,7 +10498,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10535,20 +10511,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -16939,9 +16915,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16954,20 +16928,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18317,7 +18291,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18331,20 +18305,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>797</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>798</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/test/fixtures/files/TestGenericTemplateMini.xlsx
+++ b/test/fixtures/files/TestGenericTemplateMini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghamilton/devel/CDC/SDPV/SDP-Vocabulary-Service/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB9B41-EB24-D24F-8CFE-ABA23A90F369}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E3E02-AAE9-8F44-A6F2-EC7FE63F9AC6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Questions" sheetId="8" r:id="rId1"/>
@@ -737,9 +737,6 @@
     <t>END: Cell Phone County</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Response Set Name (R)</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>This is the Yes No DK Refused Response</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1341,10 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1438,10 +1438,10 @@
         <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>229</v>
@@ -1587,19 +1587,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1703,19 +1703,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1839,19 +1839,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -1995,19 +1995,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,19 +2295,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2682,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2697,19 +2697,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>63</v>
@@ -2780,19 +2780,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/test/fixtures/files/TestGenericTemplateMini.xlsx
+++ b/test/fixtures/files/TestGenericTemplateMini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghamilton/devel/CDC/SDPV/SDP-Vocabulary-Service/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apellitieri/Desktop/CDC/SDP-Vocabulary-Service/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E3E02-AAE9-8F44-A6F2-EC7FE63F9AC6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB9730D-DEFC-514A-A617-BC35E4BFCAA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="1640" windowWidth="28800" windowHeight="16240" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Questions" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet1" sheetId="112" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Survey Questions'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Survey Questions'!$A$1:$P$13</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="245">
   <si>
     <t>Populate a category from the list</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Question Response Type (R)</t>
   </si>
   <si>
-    <t>Response Set Source (C)</t>
-  </si>
-  <si>
     <t>START: Record Identification</t>
   </si>
   <si>
@@ -713,9 +710,6 @@
     <t>RS 11</t>
   </si>
   <si>
-    <t>Question Tag Table (O)</t>
-  </si>
-  <si>
     <t>Local Response Set Table (C)</t>
   </si>
   <si>
@@ -759,6 +753,30 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Other Allowed? (O)</t>
+  </si>
+  <si>
+    <t>Question Data Collection Method (O)</t>
+  </si>
+  <si>
+    <t>Question Content Stage (O)</t>
+  </si>
+  <si>
+    <t>Question Keyword Tags (O)</t>
+  </si>
+  <si>
+    <t>Concept Name (C)</t>
+  </si>
+  <si>
+    <t>Value (C)</t>
+  </si>
+  <si>
+    <t>Code System Identifier (C)</t>
+  </si>
+  <si>
+    <t>Code System Mappings Table (O)</t>
   </si>
 </sst>
 </file>
@@ -825,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +910,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -927,13 +951,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1020,6 +1057,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1339,28 +1382,29 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.5" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1370,14 +1414,14 @@
       <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
+      <c r="D1" s="40" t="s">
+        <v>237</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -1386,22 +1430,40 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="Q1" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="19" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
       <c r="G2" s="12" t="s">
@@ -1410,18 +1472,31 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -1432,24 +1507,31 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="P5" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>230</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -1460,102 +1542,157 @@
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D8"/>
       <c r="F8" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9"/>
       <c r="F9" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D10"/>
       <c r="F10" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D11"/>
       <c r="F11" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Question Category" error="Please select a question category from the list." sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Clinical, Demographics, Treatment, Laboratory, Epidemiological, Vaccine, Emergency Preparedness"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="Select Reponse Type" error="Please select a reponse type from the list provided. For a description of each response type, visit www.hl7.org/fhir/valueset-item-type.html " sqref="C3:C4 C6:C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="Select Reponse Type" error="Please select a reponse type from the list provided. For a description of each response type, visit www.hl7.org/fhir/valueset-item-type.html " sqref="C3:D4 C6:D13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Attachment, Boolean, Choice, Date, Date Time, Decimal, Instant, Integer, Open Choice, Quantity, Reference, String, Text, Time, URL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1587,83 +1724,83 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1703,109 +1840,109 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1839,133 +1976,133 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1995,33 +2132,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2037,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2045,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2061,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2077,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2093,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2117,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2133,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -2141,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -2149,7 +2286,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -2157,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
@@ -2165,7 +2302,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
@@ -2173,7 +2310,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
@@ -2181,7 +2318,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
@@ -2189,7 +2326,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
@@ -2197,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2342,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
@@ -2213,7 +2350,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
@@ -2221,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
@@ -2229,7 +2366,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
@@ -2237,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
@@ -2245,7 +2382,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
@@ -2253,7 +2390,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
@@ -2261,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
@@ -2295,30 +2432,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="30"/>
@@ -2326,20 +2463,20 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="31"/>
       <c r="C3" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="30"/>
     </row>
@@ -2697,30 +2834,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2728,7 +2865,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2736,7 +2873,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -2744,7 +2881,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -2780,676 +2917,676 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>118</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="31"/>
       <c r="C3" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
       <c r="C9" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
       <c r="C11" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
       <c r="C12" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="C13" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
       <c r="C14" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="31"/>
       <c r="C15" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
       <c r="C16" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="31"/>
       <c r="C17" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
